--- a/第4章excel/分类汇总与合并计算/课堂文件-分类汇总与合并计算.xlsx
+++ b/第4章excel/分类汇总与合并计算/课堂文件-分类汇总与合并计算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="分类汇总" sheetId="1" r:id="rId1"/>
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1583,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1593,7 +1593,7 @@
     <col min="2" max="2" width="6.5" customWidth="1"/>
   </cols>
   <sheetData/>
-  <dataConsolidate leftLabels="1" link="1">
+  <dataConsolidate link="1">
     <dataRefs count="3">
       <dataRef ref="A1:B13" sheet="1月"/>
       <dataRef ref="A1:B15" sheet="2月"/>
